--- a/Data/Raw/SRP-NH4_Ar.xlsx
+++ b/Data/Raw/SRP-NH4_Ar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Postdoc\Allemagne\Github\AnoxicAge\Data\Raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B33B73-36BE-4F9C-9E5C-175FED1B5BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E533D8C-076F-4BD2-BEF1-80BBC32BCC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{267D1887-915B-4FE7-B498-7A122E5FC6AF}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="380">
   <si>
     <t>Date</t>
   </si>
@@ -1165,6 +1165,9 @@
   </si>
   <si>
     <t>1.03</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -1677,8 +1680,8 @@
   <dimension ref="A1:CU285"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I134" sqref="I134"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1725,7 +1728,9 @@
       <c r="E2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="15"/>
+      <c r="F2" s="15" t="s">
+        <v>379</v>
+      </c>
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:97" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -1744,7 +1749,9 @@
       <c r="E3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="14"/>
+      <c r="F3" s="14" t="s">
+        <v>379</v>
+      </c>
       <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:97" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3339,7 +3346,9 @@
       <c r="E80" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F80" s="15"/>
+      <c r="F80" s="15" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="81" spans="1:94" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="13">
@@ -3542,7 +3551,9 @@
       <c r="E90" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F90" s="15"/>
+      <c r="F90" s="15" t="s">
+        <v>379</v>
+      </c>
       <c r="CO90" s="7"/>
     </row>
     <row r="91" spans="1:94" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3705,7 +3716,9 @@
       <c r="E98" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="F98" s="15"/>
+      <c r="F98" s="15" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="99" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="13">
@@ -3723,7 +3736,9 @@
       <c r="E99" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F99" s="15"/>
+      <c r="F99" s="15" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="100" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="13">
@@ -3741,7 +3756,9 @@
       <c r="E100" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F100" s="15"/>
+      <c r="F100" s="15" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="101" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="13">
@@ -3759,7 +3776,9 @@
       <c r="E101" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="F101" s="15"/>
+      <c r="F101" s="15" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="102" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="19">
@@ -4561,7 +4580,9 @@
       <c r="E140" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="F140" s="15"/>
+      <c r="F140" s="15" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="141" spans="1:99" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="13">
@@ -4579,7 +4600,9 @@
       <c r="E141" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F141" s="15"/>
+      <c r="F141" s="15" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="142" spans="1:99" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="13">
@@ -5287,7 +5310,9 @@
       <c r="D176" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="E176" s="15"/>
+      <c r="E176" s="15" t="s">
+        <v>379</v>
+      </c>
       <c r="F176" s="15" t="s">
         <v>22</v>
       </c>
@@ -7344,7 +7369,9 @@
       <c r="E276" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="F276" s="15"/>
+      <c r="F276" s="15" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="277" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A277" s="13">
@@ -7362,7 +7389,9 @@
       <c r="E277" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="F277" s="15"/>
+      <c r="F277" s="15" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="278" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A278" s="13">
@@ -7380,7 +7409,9 @@
       <c r="E278" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="F278" s="15"/>
+      <c r="F278" s="15" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="279" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A279" s="13">
@@ -7398,7 +7429,9 @@
       <c r="E279" s="16" t="s">
         <v>372</v>
       </c>
-      <c r="F279" s="15"/>
+      <c r="F279" s="15" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="280" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A280" s="13">
@@ -7416,7 +7449,9 @@
       <c r="E280" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="F280" s="15"/>
+      <c r="F280" s="15" t="s">
+        <v>379</v>
+      </c>
       <c r="G280" s="12"/>
     </row>
     <row r="281" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
